--- a/database/database.xlsx
+++ b/database/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118D2F65-4ABF-4D37-A79C-81856A4F396A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEA1457-68D4-417F-98F2-4C5558E6D8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E5238080-1173-4A9E-8719-C1C4E5972624}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
   <si>
     <t>khach_hang</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>ma_chuc_nang</t>
+  </si>
+  <si>
+    <t>ma_loai_day</t>
+  </si>
+  <si>
+    <t>ma_kieu_may</t>
   </si>
 </sst>
 </file>
@@ -499,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE98757A-5DC0-42B6-B617-7F00C743BD48}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,7 +522,7 @@
     <col min="11" max="11" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -535,8 +541,14 @@
       <c r="J1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -555,8 +567,14 @@
       <c r="J2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -575,8 +593,14 @@
       <c r="J3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -587,7 +611,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -604,7 +628,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -621,7 +645,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -638,7 +662,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -652,7 +676,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -666,35 +690,35 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
         <v>22</v>
       </c>
@@ -702,7 +726,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F16" t="s">
         <v>1</v>
       </c>
